--- a/biology/Zoologie/Cirrhitidae/Cirrhitidae.xlsx
+++ b/biology/Zoologie/Cirrhitidae/Cirrhitidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Cirrhitidae  sont une famille de poissons marins de l'ordre des Perciformes qui est représentée par 12 genres et 33 espèces[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Cirrhitidae  sont une famille de poissons marins de l'ordre des Perciformes qui est représentée par 12 genres et 33 espèces.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les poissons-éperviers (ou poissons-faucons) appartiennent à la famille des Cirrhitidae, qui comprend 13 genres et 40 espèces[3]. Ils doivent leurs noms vernaculaires à leur technique de chasse, à l’affût sur une branche de corail, avec de très vives accélérations dès que la proie passe à portée. Ils sont caractérisés par les touffes de cirrhes qui se trouvent au sommet des rayons durs de leur nageoire dorsale. Les poissons-éperviers sont hermaphrodites protogynes[4] et peuvent être monogames et territoriaux, ou former des harems[5]. Tous sont carnivores et se nourrissent de petits poissons et de crustacés[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les poissons-éperviers (ou poissons-faucons) appartiennent à la famille des Cirrhitidae, qui comprend 13 genres et 40 espèces. Ils doivent leurs noms vernaculaires à leur technique de chasse, à l’affût sur une branche de corail, avec de très vives accélérations dès que la proie passe à portée. Ils sont caractérisés par les touffes de cirrhes qui se trouvent au sommet des rayons durs de leur nageoire dorsale. Les poissons-éperviers sont hermaphrodites protogynes et peuvent être monogames et territoriaux, ou former des harems. Tous sont carnivores et se nourrissent de petits poissons et de crustacés.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon FishBase                                            (13 mars 2014)[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon FishBase                                            (13 mars 2014) :
 Amblycirrhitus Gill, 1862 — (5 espèces)
 Cirrhitichthys Bleeker, 1857 — (8 espèces)
 Cirrhitops Smith, 1951 — (3 espèces)
@@ -592,7 +608,9 @@
           <t>Aquariophilie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs espèces, aux vives couleurs, sont parfois proposées dans les magasins d'aquariophilie, notamment :
 Cirrhitichthys falco (épervier nain, épervier à joues épineuses)
